--- a/data/trans_orig/P25F_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P25F_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{499B7858-1429-45F8-931B-5E25AE833A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D0C3B2E-CF8E-4A8E-8B59-D608597BD8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D5C54579-9501-4B39-A490-20891E18AE9F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A886EDF3-9563-468F-9841-7032A580C9DE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -164,373 +164,373 @@
     <t>4,96%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
   </si>
   <si>
     <t>9,56%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
   </si>
   <si>
     <t>6,76%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
   </si>
   <si>
     <t>42,4%</t>
   </si>
   <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
   </si>
   <si>
     <t>22,22%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
   </si>
   <si>
     <t>34,51%</t>
   </si>
   <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
   </si>
   <si>
     <t>15,75%</t>
   </si>
   <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
   </si>
   <si>
     <t>17,79%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
   </si>
   <si>
     <t>16,55%</t>
   </si>
   <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
   </si>
   <si>
     <t>13,23%</t>
   </si>
   <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
   </si>
   <si>
     <t>12,78%</t>
   </si>
   <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
   </si>
   <si>
     <t>24,4%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
   </si>
   <si>
     <t>37,19%</t>
   </si>
   <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
   </si>
   <si>
     <t>29,41%</t>
   </si>
   <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
     <t>19,83%</t>
   </si>
   <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,25%</t>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
   </si>
   <si>
     <t>21,95%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
+    <t>48,79%</t>
   </si>
   <si>
     <t>27,04%</t>
   </si>
   <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -945,7 +945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1517966D-A1E2-469F-BABA-285833220F34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B0A903-7420-4E56-A5E1-30765C71A8F0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1823,7 +1823,7 @@
         <v>104</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1838,13 +1838,13 @@
         <v>1262</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -1853,13 +1853,13 @@
         <v>1519</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -1868,13 +1868,13 @@
         <v>2781</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1889,13 +1889,13 @@
         <v>3049</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -1904,13 +1904,13 @@
         <v>3236</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -1919,13 +1919,13 @@
         <v>6285</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,13 +1993,13 @@
         <v>3639</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2008,13 +2008,13 @@
         <v>4991</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -2023,10 +2023,10 @@
         <v>8630</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>128</v>

--- a/data/trans_orig/P25F_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P25F_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D0C3B2E-CF8E-4A8E-8B59-D608597BD8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D79E1A6B-3D8B-4C0F-94CD-1BFA629A6723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A886EDF3-9563-468F-9841-7032A580C9DE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{08EA4608-3B96-43BB-B176-FF2DB69C70D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -945,7 +945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B0A903-7420-4E56-A5E1-30765C71A8F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD364B5-22AF-4650-9E51-128A6EC7B468}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P25F_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P25F_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D79E1A6B-3D8B-4C0F-94CD-1BFA629A6723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7C9964A-56CF-4CFB-9DEE-0975E38BE19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{08EA4608-3B96-43BB-B176-FF2DB69C70D5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6872408C-A37D-4B1B-9DA6-A6380FB95B02}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -164,373 +164,373 @@
     <t>4,96%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
   </si>
   <si>
     <t>9,56%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
   </si>
   <si>
     <t>6,76%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
   </si>
   <si>
     <t>42,4%</t>
   </si>
   <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
   </si>
   <si>
     <t>22,22%</t>
   </si>
   <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
   </si>
   <si>
     <t>34,51%</t>
   </si>
   <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
   </si>
   <si>
     <t>15,75%</t>
   </si>
   <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
   </si>
   <si>
     <t>17,79%</t>
   </si>
   <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
   </si>
   <si>
     <t>16,55%</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
   </si>
   <si>
     <t>13,23%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
   </si>
   <si>
     <t>12,78%</t>
   </si>
   <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
     <t>6,54%</t>
   </si>
   <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
+    <t>20,4%</t>
   </si>
   <si>
     <t>23,05%</t>
   </si>
   <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
   </si>
   <si>
     <t>33,02%</t>
   </si>
   <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
   </si>
   <si>
     <t>27,04%</t>
   </si>
   <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -945,7 +945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD364B5-22AF-4650-9E51-128A6EC7B468}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85286D46-DB99-4406-80F6-07CEA62EF854}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1823,7 +1823,7 @@
         <v>104</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1838,13 +1838,13 @@
         <v>1262</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -1853,13 +1853,13 @@
         <v>1519</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -1868,13 +1868,13 @@
         <v>2781</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1889,13 +1889,13 @@
         <v>3049</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -1904,13 +1904,13 @@
         <v>3236</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -1919,13 +1919,13 @@
         <v>6285</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,13 +1993,13 @@
         <v>3639</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2008,13 +2008,13 @@
         <v>4991</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -2023,10 +2023,10 @@
         <v>8630</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>128</v>

--- a/data/trans_orig/P25F_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P25F_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7C9964A-56CF-4CFB-9DEE-0975E38BE19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03778372-2681-4C49-8954-4D691A5F4D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6872408C-A37D-4B1B-9DA6-A6380FB95B02}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{45D31472-354B-4D9F-842D-20F0026AE05F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -89,52 +89,52 @@
     <t>Por probar</t>
   </si>
   <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
   </si>
   <si>
     <t>Para reducir el consumo del tabaco tradicional</t>
   </si>
   <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
   </si>
   <si>
     <t>Para dejar de fumar</t>
@@ -143,16 +143,16 @@
     <t>Como sustituto del tabaco</t>
   </si>
   <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
   </si>
   <si>
     <t>100%</t>
@@ -161,376 +161,376 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
   </si>
   <si>
     <t>11,03%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -945,7 +945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85286D46-DB99-4406-80F6-07CEA62EF854}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49F0708-C099-4872-90D7-8503FE1FA65E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1117,7 +1117,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>4465</v>
+        <v>4856</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1132,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>20</v>
@@ -1147,7 +1147,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>4866</v>
+        <v>5220</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>22</v>
@@ -1168,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>2869</v>
+        <v>2684</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>579</v>
+        <v>496</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>29</v>
@@ -1198,7 +1198,7 @@
         <v>4</v>
       </c>
       <c r="N6" s="7">
-        <v>3448</v>
+        <v>3180</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1270,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>820</v>
+        <v>663</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>35</v>
@@ -1300,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>820</v>
+        <v>663</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>37</v>
@@ -1321,7 +1321,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="7">
-        <v>8154</v>
+        <v>8204</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>39</v>
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>980</v>
+        <v>859</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>39</v>
@@ -1351,7 +1351,7 @@
         <v>9</v>
       </c>
       <c r="N9" s="7">
-        <v>9134</v>
+        <v>9063</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>39</v>
@@ -1374,7 +1374,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>3639</v>
+        <v>3798</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>41</v>
@@ -1389,7 +1389,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>4511</v>
+        <v>4195</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>44</v>
@@ -1404,7 +1404,7 @@
         <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>8150</v>
+        <v>7993</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>47</v>
@@ -1425,7 +1425,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="7">
-        <v>31106</v>
+        <v>36736</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>50</v>
@@ -1440,7 +1440,7 @@
         <v>9</v>
       </c>
       <c r="I11" s="7">
-        <v>10482</v>
+        <v>9324</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>53</v>
@@ -1455,7 +1455,7 @@
         <v>25</v>
       </c>
       <c r="N11" s="7">
-        <v>41588</v>
+        <v>46061</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>56</v>
@@ -1476,7 +1476,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>11552</v>
+        <v>11678</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>59</v>
@@ -1491,7 +1491,7 @@
         <v>9</v>
       </c>
       <c r="I12" s="7">
-        <v>8391</v>
+        <v>7223</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>62</v>
@@ -1506,7 +1506,7 @@
         <v>19</v>
       </c>
       <c r="N12" s="7">
-        <v>19942</v>
+        <v>18901</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>65</v>
@@ -1527,7 +1527,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>9157</v>
+        <v>9033</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>68</v>
@@ -1542,7 +1542,7 @@
         <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>6240</v>
+        <v>5501</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>71</v>
@@ -1557,7 +1557,7 @@
         <v>14</v>
       </c>
       <c r="N13" s="7">
-        <v>15397</v>
+        <v>14534</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>74</v>
@@ -1578,7 +1578,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="7">
-        <v>17902</v>
+        <v>17413</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>77</v>
@@ -1593,7 +1593,7 @@
         <v>19</v>
       </c>
       <c r="I14" s="7">
-        <v>17543</v>
+        <v>15650</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>80</v>
@@ -1608,7 +1608,7 @@
         <v>33</v>
       </c>
       <c r="N14" s="7">
-        <v>35444</v>
+        <v>33063</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>83</v>
@@ -1629,7 +1629,7 @@
         <v>49</v>
       </c>
       <c r="D15" s="7">
-        <v>73356</v>
+        <v>78658</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>39</v>
@@ -1644,7 +1644,7 @@
         <v>48</v>
       </c>
       <c r="I15" s="7">
-        <v>47166</v>
+        <v>41893</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>39</v>
@@ -1659,7 +1659,7 @@
         <v>97</v>
       </c>
       <c r="N15" s="7">
-        <v>120521</v>
+        <v>120552</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -1697,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>480</v>
+        <v>436</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>87</v>
@@ -1712,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>480</v>
+        <v>436</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>89</v>
@@ -1733,7 +1733,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>8615</v>
+        <v>8869</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>91</v>
@@ -1748,7 +1748,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>4441</v>
+        <v>4130</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>94</v>
@@ -1763,7 +1763,7 @@
         <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>13055</v>
+        <v>12998</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>97</v>
@@ -1799,7 +1799,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="7">
-        <v>5104</v>
+        <v>4411</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>100</v>
@@ -1814,7 +1814,7 @@
         <v>5</v>
       </c>
       <c r="N18" s="7">
-        <v>5104</v>
+        <v>4411</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>103</v>
@@ -1823,7 +1823,7 @@
         <v>104</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1835,46 +1835,46 @@
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>1262</v>
+        <v>1271</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>1519</v>
+        <v>1365</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>2781</v>
+        <v>2636</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1886,46 +1886,46 @@
         <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>3049</v>
+        <v>2717</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
       </c>
       <c r="I20" s="7">
-        <v>3236</v>
+        <v>2894</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
       </c>
       <c r="N20" s="7">
-        <v>6285</v>
+        <v>5611</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,7 +1937,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="7">
-        <v>12926</v>
+        <v>12857</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>39</v>
@@ -1952,7 +1952,7 @@
         <v>17</v>
       </c>
       <c r="I21" s="7">
-        <v>14779</v>
+        <v>13236</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>39</v>
@@ -1967,7 +1967,7 @@
         <v>26</v>
       </c>
       <c r="N21" s="7">
-        <v>27705</v>
+        <v>26093</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>39</v>
@@ -1990,46 +1990,46 @@
         <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>3639</v>
+        <v>3798</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
       </c>
       <c r="I22" s="7">
-        <v>4991</v>
+        <v>4631</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
       </c>
       <c r="N22" s="7">
-        <v>8630</v>
+        <v>8429</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2041,46 +2041,46 @@
         <v>24</v>
       </c>
       <c r="D23" s="7">
-        <v>44186</v>
+        <v>50461</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>14</v>
       </c>
       <c r="I23" s="7">
-        <v>15323</v>
+        <v>13818</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>38</v>
       </c>
       <c r="N23" s="7">
-        <v>59509</v>
+        <v>64279</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,46 +2092,46 @@
         <v>13</v>
       </c>
       <c r="D24" s="7">
-        <v>14421</v>
+        <v>14362</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H24" s="7">
         <v>15</v>
       </c>
       <c r="I24" s="7">
-        <v>14073</v>
+        <v>12130</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M24" s="7">
         <v>28</v>
       </c>
       <c r="N24" s="7">
-        <v>28495</v>
+        <v>26492</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,46 +2143,46 @@
         <v>7</v>
       </c>
       <c r="D25" s="7">
-        <v>10419</v>
+        <v>10304</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
       </c>
       <c r="I25" s="7">
-        <v>7759</v>
+        <v>6866</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
       </c>
       <c r="N25" s="7">
-        <v>18178</v>
+        <v>17170</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2194,43 +2194,43 @@
         <v>18</v>
       </c>
       <c r="D26" s="7">
-        <v>21771</v>
+        <v>20793</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H26" s="7">
         <v>24</v>
       </c>
       <c r="I26" s="7">
-        <v>20779</v>
+        <v>18544</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M26" s="7">
         <v>42</v>
       </c>
       <c r="N26" s="7">
-        <v>42549</v>
+        <v>39337</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>164</v>
@@ -2245,7 +2245,7 @@
         <v>65</v>
       </c>
       <c r="D27" s="7">
-        <v>94436</v>
+        <v>99719</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>39</v>
@@ -2260,7 +2260,7 @@
         <v>67</v>
       </c>
       <c r="I27" s="7">
-        <v>62925</v>
+        <v>55989</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>39</v>
@@ -2275,7 +2275,7 @@
         <v>132</v>
       </c>
       <c r="N27" s="7">
-        <v>157361</v>
+        <v>155708</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>39</v>
